--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/98.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/98.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1601957850154145</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.589297892172286</v>
+        <v>-1.696392419640439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04570630142191168</v>
+        <v>0.12644258070489</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1065139323919565</v>
+        <v>-0.07786778884832786</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1501371511306978</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.697131203974439</v>
+        <v>-1.752959062826514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01662652359528313</v>
+        <v>0.02511232309964449</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08888677179041581</v>
+        <v>0.004496444056013661</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1531999409320733</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.806153724946636</v>
+        <v>-1.99690389785554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03700879494436857</v>
+        <v>0.04834898846645643</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1438838632787647</v>
+        <v>-0.1392467505420386</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1699230759144378</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.999705730141994</v>
+        <v>-2.140558759544092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08264259802571995</v>
+        <v>-0.06462515266378596</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1592727701569424</v>
+        <v>-0.08709821287905266</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1965491610787367</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.104802181797738</v>
+        <v>-2.258181693795788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1402852966547954</v>
+        <v>-0.1251864874265879</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1653480302632135</v>
+        <v>-0.03232596879670372</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2272510619599725</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.99953928465963</v>
+        <v>-2.066313854073294</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2509861429074929</v>
+        <v>-0.00828335688371018</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1859186478160261</v>
+        <v>-0.03443281819188498</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2556022838490908</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.757574274841877</v>
+        <v>-1.75391539432606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3359419611731974</v>
+        <v>-0.1129001827415912</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1783628989455736</v>
+        <v>-0.04681986619515438</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.273385835339449</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.333910660254809</v>
+        <v>-1.376501723114707</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3831277953751847</v>
+        <v>0.08810901807808212</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1633433842343958</v>
+        <v>-0.001596336627348339</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2705116707964645</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8346472155685792</v>
+        <v>-0.9760134518746322</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3781417311447315</v>
+        <v>0.07723896004126686</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1143981920828635</v>
+        <v>0.02189875725155444</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2360185910683187</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2298587951119234</v>
+        <v>-0.4584658249459529</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2942517479853904</v>
+        <v>-0.05573491983824289</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0846394918939624</v>
+        <v>0.05771811706581755</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1602293491908668</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4876000764720658</v>
+        <v>0.3621673449820995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08176510912308382</v>
+        <v>-0.3622033942642515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01893631967510069</v>
+        <v>0.215579976702957</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03716683165853623</v>
       </c>
       <c r="E13" t="n">
-        <v>1.174561463533154</v>
+        <v>0.822027011790885</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2227162398511981</v>
+        <v>-0.587404131902191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1383536530305232</v>
+        <v>0.4181295282585389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1331676247773017</v>
       </c>
       <c r="E14" t="n">
-        <v>1.942464996658039</v>
+        <v>1.586978327675952</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6508782626063558</v>
+        <v>-1.115321020372504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2513745156996746</v>
+        <v>0.4097240313991776</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3433035085432272</v>
       </c>
       <c r="E15" t="n">
-        <v>2.734027149048008</v>
+        <v>2.409639504402277</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.052391487606248</v>
+        <v>-1.485035858000495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4105197576087228</v>
+        <v>0.6651083432204726</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.582164265576234</v>
       </c>
       <c r="E16" t="n">
-        <v>3.38587145942656</v>
+        <v>3.129507455336265</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.490040902856131</v>
+        <v>-1.891759994636841</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5563975425156836</v>
+        <v>0.8712306324545082</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8368215866615019</v>
       </c>
       <c r="E17" t="n">
-        <v>4.019600953141208</v>
+        <v>3.896475097634878</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.859777641205486</v>
+        <v>-2.05391950582957</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6937690872450104</v>
+        <v>1.005955109995017</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.093197576188607</v>
       </c>
       <c r="E18" t="n">
-        <v>4.577699955746786</v>
+        <v>4.452438049883455</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.216479070199208</v>
+        <v>-2.533583994967487</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9018084196224091</v>
+        <v>1.222322556682959</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.337590761809236</v>
       </c>
       <c r="E19" t="n">
-        <v>5.017574484287213</v>
+        <v>4.91570254884024</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.597865532265924</v>
+        <v>-2.743592202195476</v>
       </c>
       <c r="G19" t="n">
-        <v>1.072415039045091</v>
+        <v>1.346400363544562</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.557638831010417</v>
       </c>
       <c r="E20" t="n">
-        <v>5.414947012901288</v>
+        <v>5.140945627872816</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.934992826528879</v>
+        <v>-2.984184766807775</v>
       </c>
       <c r="G20" t="n">
-        <v>1.232680137839866</v>
+        <v>1.562529822393686</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.743223730980269</v>
       </c>
       <c r="E21" t="n">
-        <v>5.73199353574593</v>
+        <v>5.593359049417968</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.223813699680074</v>
+        <v>-3.318772307416594</v>
       </c>
       <c r="G21" t="n">
-        <v>1.353229008465742</v>
+        <v>1.762322803153633</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.886078006707741</v>
       </c>
       <c r="E22" t="n">
-        <v>5.992490935981587</v>
+        <v>5.969054244026321</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.528057060815538</v>
+        <v>-3.491230997842593</v>
       </c>
       <c r="G22" t="n">
-        <v>1.452646603071898</v>
+        <v>1.823875510570161</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.98077454601239</v>
       </c>
       <c r="E23" t="n">
-        <v>6.105008082059376</v>
+        <v>5.98807575055468</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.752248175198614</v>
+        <v>-3.668174225979818</v>
       </c>
       <c r="G23" t="n">
-        <v>1.557370012440415</v>
+        <v>1.93645835881204</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.026803759570222</v>
       </c>
       <c r="E24" t="n">
-        <v>6.199308208106896</v>
+        <v>6.176122644423265</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.957968221183604</v>
+        <v>-3.829935144043729</v>
       </c>
       <c r="G24" t="n">
-        <v>1.674216201107747</v>
+        <v>2.067404231893278</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.028734829696783</v>
       </c>
       <c r="E25" t="n">
-        <v>6.214464967338619</v>
+        <v>6.068963874839112</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.048631367436671</v>
+        <v>-4.077034412973163</v>
       </c>
       <c r="G25" t="n">
-        <v>1.690406674387834</v>
+        <v>1.950200331443673</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.994549751856618</v>
       </c>
       <c r="E26" t="n">
-        <v>6.1164387985631</v>
+        <v>5.999445145038585</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.119225422656152</v>
+        <v>-4.042972221036309</v>
       </c>
       <c r="G26" t="n">
-        <v>1.697366723637195</v>
+        <v>1.856960200310153</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.935221777343951</v>
       </c>
       <c r="E27" t="n">
-        <v>5.959841340572687</v>
+        <v>5.810917895348091</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.165602390215776</v>
+        <v>-4.002732565626819</v>
       </c>
       <c r="G27" t="n">
-        <v>1.710185945875374</v>
+        <v>1.924678690814589</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.861099258924239</v>
       </c>
       <c r="E28" t="n">
-        <v>5.859118462973259</v>
+        <v>5.893542016812614</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.132817010334421</v>
+        <v>-3.969887323773737</v>
       </c>
       <c r="G28" t="n">
-        <v>1.674727217939565</v>
+        <v>1.856127972898335</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.780697279754464</v>
       </c>
       <c r="E29" t="n">
-        <v>5.587583099170333</v>
+        <v>5.655590679196769</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.109729999896927</v>
+        <v>-3.936771242999792</v>
       </c>
       <c r="G29" t="n">
-        <v>1.619842550154216</v>
+        <v>1.771924079399448</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.70038809849741</v>
       </c>
       <c r="E30" t="n">
-        <v>5.444701332945916</v>
+        <v>5.608911481682327</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.049149684508944</v>
+        <v>-4.041081458758581</v>
       </c>
       <c r="G30" t="n">
-        <v>1.583950187935408</v>
+        <v>1.812322150026801</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.622566332881384</v>
       </c>
       <c r="E31" t="n">
-        <v>5.185526736280623</v>
+        <v>5.327312006388766</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.917621252239433</v>
+        <v>-4.077844009639572</v>
       </c>
       <c r="G31" t="n">
-        <v>1.443175271106173</v>
+        <v>1.589787460202861</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.547628279826068</v>
       </c>
       <c r="E32" t="n">
-        <v>4.877679976456796</v>
+        <v>4.970385729989044</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.733369753383164</v>
+        <v>-3.881365338045988</v>
       </c>
       <c r="G32" t="n">
-        <v>1.326270680515204</v>
+        <v>1.555559552807688</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.474201824893151</v>
       </c>
       <c r="E33" t="n">
-        <v>4.574972585912969</v>
+        <v>4.708352359161751</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.523928044814448</v>
+        <v>-3.903247078784437</v>
       </c>
       <c r="G33" t="n">
-        <v>1.259331855691313</v>
+        <v>1.618188315667217</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.399695374151988</v>
       </c>
       <c r="E34" t="n">
-        <v>4.196599663105888</v>
+        <v>4.45246141065291</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.352573880769221</v>
+        <v>-3.864698889088265</v>
       </c>
       <c r="G34" t="n">
-        <v>1.168261356020883</v>
+        <v>1.4761256364218</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.322516548193148</v>
       </c>
       <c r="E35" t="n">
-        <v>3.843869564919437</v>
+        <v>4.02567767329557</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.200628135996444</v>
+        <v>-3.842844889263544</v>
       </c>
       <c r="G35" t="n">
-        <v>1.086146791340087</v>
+        <v>1.475131343671892</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.240267697726421</v>
       </c>
       <c r="E36" t="n">
-        <v>3.504347061763347</v>
+        <v>3.811630243024082</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.05680974892171</v>
+        <v>-3.694186442767448</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9601417209984843</v>
+        <v>1.325723162481113</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.152354390608925</v>
       </c>
       <c r="E37" t="n">
-        <v>3.121921045455904</v>
+        <v>3.477470496505899</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.919702472896838</v>
+        <v>-3.620445983912059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8481545723776962</v>
+        <v>1.260905787533313</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.058738399631137</v>
       </c>
       <c r="E38" t="n">
-        <v>2.775270587519997</v>
+        <v>3.288169421327223</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.772874926706741</v>
+        <v>-3.466744531309963</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7558459519261755</v>
+        <v>1.126430978216349</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9604841419984962</v>
       </c>
       <c r="E39" t="n">
-        <v>2.425813917153364</v>
+        <v>2.864172915775427</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.660295728585089</v>
+        <v>-3.321563189342366</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6720581721331981</v>
+        <v>1.03923544617919</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8593976644890031</v>
       </c>
       <c r="E40" t="n">
-        <v>2.146255589090893</v>
+        <v>2.489131822711801</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.535559440034486</v>
+        <v>-3.160676840084909</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5716302242481341</v>
+        <v>0.9421422481337619</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7571976676014751</v>
       </c>
       <c r="E41" t="n">
-        <v>1.9168878742015</v>
+        <v>2.202322895829878</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.439862777988012</v>
+        <v>-3.078918527138295</v>
       </c>
       <c r="G41" t="n">
-        <v>0.495926730734518</v>
+        <v>0.8154772360550686</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6554069268586576</v>
       </c>
       <c r="E42" t="n">
-        <v>1.618798615769216</v>
+        <v>1.804922626302076</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.352751928740126</v>
+        <v>-2.854139743398628</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4408011550141692</v>
+        <v>0.7419054127541793</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5554852538770906</v>
       </c>
       <c r="E43" t="n">
-        <v>1.426400778589723</v>
+        <v>1.693725363698469</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.296449554258505</v>
+        <v>-2.804449196696686</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3557226927088284</v>
+        <v>0.6122589824738505</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4593950783969218</v>
       </c>
       <c r="E44" t="n">
-        <v>1.212912546737053</v>
+        <v>1.435416575551084</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.255060841001471</v>
+        <v>-2.729626112181888</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3157173750179301</v>
+        <v>0.4993009018726081</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3690625792705541</v>
       </c>
       <c r="E45" t="n">
-        <v>1.051561172162642</v>
+        <v>1.25230610427786</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.158096857212088</v>
+        <v>-2.578855706122293</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2215982949336826</v>
+        <v>0.4332585465765349</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2855137116016557</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8553832704757852</v>
+        <v>0.9649087780153012</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.116476726332644</v>
+        <v>-2.542057384063075</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2202462904015012</v>
+        <v>0.4806648480402494</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2097376695704218</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5855561629392213</v>
+        <v>0.5800196605784955</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.042800509593255</v>
+        <v>-2.499568524569541</v>
       </c>
       <c r="G47" t="n">
-        <v>0.175424274058695</v>
+        <v>0.317221224551566</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.142589271879816</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4714723852598883</v>
+        <v>0.4834827408557033</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.965836264553139</v>
+        <v>-2.45779873876078</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1157491884870747</v>
+        <v>0.2693345672659426</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08439255048618677</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3117431241144766</v>
+        <v>0.2567810737803096</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.878824698575435</v>
+        <v>-2.40893822939852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07851504207272106</v>
+        <v>0.1747292911674225</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03526271855229674</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2097675252530495</v>
+        <v>0.1722530496052413</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.810915671795135</v>
+        <v>-2.276787816642283</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03035389574600672</v>
+        <v>0.06700110282781506</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.006026825782313686</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09190368306635383</v>
+        <v>0.03502896973309638</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.761288637185149</v>
+        <v>-2.24341111728411</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01453966295325395</v>
+        <v>0.06687699874008782</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04010718368260242</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01756241442155561</v>
+        <v>-0.06238543889233202</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.697909409606893</v>
+        <v>-2.111088418853146</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.034000643956976</v>
+        <v>0.01566581195146521</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06832391935539713</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.06835557553605769</v>
+        <v>-0.3082297964876297</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.632965010475183</v>
+        <v>-2.04870640412098</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09400716044523262</v>
+        <v>0.03395729443436939</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09167974938959422</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09747477466114078</v>
+        <v>-0.1328152387015858</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.616875280513369</v>
+        <v>-2.084698779634016</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1299112030487684</v>
+        <v>-0.1121073766282278</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1113263457240619</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2221993828270164</v>
+        <v>-0.4304110008791423</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.619741354915823</v>
+        <v>-2.118793092628871</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1556138896411252</v>
+        <v>-0.1526091106700351</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1284812792294739</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2854486661251812</v>
+        <v>-0.5326946698877512</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.57678820012938</v>
+        <v>-1.957660725268096</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1943445853486602</v>
+        <v>-0.1301375105028593</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1440292688589069</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3432169288900748</v>
+        <v>-0.5582615720076534</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.573669537407199</v>
+        <v>-1.941995869300736</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1886635382269345</v>
+        <v>-0.1706436246889393</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1587057213837504</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3604338159780702</v>
+        <v>-0.605505808133277</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.582298421624469</v>
+        <v>-1.957757088442096</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2735624146170935</v>
+        <v>-0.2308662282946504</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1731018707569083</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4224113973890535</v>
+        <v>-0.786500669722774</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.593235641873466</v>
+        <v>-1.880185463396162</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3132348413432647</v>
+        <v>-0.2515945310412812</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1874653677846771</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4481418248951375</v>
+        <v>-0.7267306810252445</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.613559511298915</v>
+        <v>-1.873064078832755</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3212767862279898</v>
+        <v>-0.2248289294387429</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2022990658318224</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5239387614865717</v>
+        <v>-0.887166605446656</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.628835994474093</v>
+        <v>-1.934165631389193</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3849757643381545</v>
+        <v>-0.3696657000568859</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2178430281773041</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6496693427870834</v>
+        <v>-1.023710302908438</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.674539879863808</v>
+        <v>-1.816919389544952</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4094111291876025</v>
+        <v>-0.3823900191691552</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2339609222070895</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.745657284427694</v>
+        <v>-1.061566429809518</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.751585157572969</v>
+        <v>-1.978234992941136</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4329091431626871</v>
+        <v>-0.4858212859772183</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2507473518343684</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8683787066128429</v>
+        <v>-1.138582506556861</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.751961849980424</v>
+        <v>-1.972394800577501</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4808104009292197</v>
+        <v>-0.5603450606333801</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2678406101732665</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.933958226664098</v>
+        <v>-1.281722701293368</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.741975121038608</v>
+        <v>-1.899947944330657</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5031053352773955</v>
+        <v>-0.6111080126580938</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.284996809292517</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.000650303360626</v>
+        <v>-1.472901398316953</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.87310350013121</v>
+        <v>-2.080984417290745</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5153200976059377</v>
+        <v>-0.6249083872133628</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3017022475235206</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.035510411579162</v>
+        <v>-1.514612052178033</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.914364459180289</v>
+        <v>-2.035441867215075</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5180182664779369</v>
+        <v>-0.6495335583146289</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3170594394953991</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.100244563785781</v>
+        <v>-1.483610851063769</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.973360622389637</v>
+        <v>-2.138587694621366</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5571709160837446</v>
+        <v>-0.6689609582122601</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3298233110289338</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.104576526471507</v>
+        <v>-1.452911879904322</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.022978896711078</v>
+        <v>-2.193830804213032</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5604472639997438</v>
+        <v>-0.6496270013924471</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3391085232758198</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.132244437794226</v>
+        <v>-1.576026055025926</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.092437764539878</v>
+        <v>-2.310352862204183</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5700280995722866</v>
+        <v>-0.6915975438137085</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3439888414609757</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.103738458867325</v>
+        <v>-1.622508146048095</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.147988214254681</v>
+        <v>-2.488770008889181</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.626743667663635</v>
+        <v>-0.8519006038588472</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3441241321752317</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.07564421350206</v>
+        <v>-1.657210569072813</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.199230792077258</v>
+        <v>-2.66644326107186</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6163568855449105</v>
+        <v>-0.735663255245424</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3391269826600464</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9822726780403578</v>
+        <v>-1.548908581833478</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.200401020622122</v>
+        <v>-2.706391636887213</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6617366402584438</v>
+        <v>-0.8419284753979409</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3292487133726064</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.909858672875559</v>
+        <v>-1.625597607808458</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.209345275227028</v>
+        <v>-2.797200057925325</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6657123512099882</v>
+        <v>-0.88580730067402</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3151522491813278</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7382986420495141</v>
+        <v>-1.378447967219888</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.185529700792171</v>
+        <v>-2.7892785670081</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6496474420657198</v>
+        <v>-0.9506655569683662</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2975759348123097</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6049685104358227</v>
+        <v>-1.382492300431705</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.113939162750645</v>
+        <v>-2.666284845853996</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6228716201265452</v>
+        <v>-0.9151192261471031</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2779035108100831</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4328157000848689</v>
+        <v>-1.192557564381574</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.128823623013413</v>
+        <v>-2.692048124442126</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.597336839064643</v>
+        <v>-0.7984438631064071</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2571153641735008</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2753538936246385</v>
+        <v>-0.9343538996967342</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.08420674342738</v>
+        <v>-2.646276346816184</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6072695462270948</v>
+        <v>-0.8472693313144849</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2370320480135213</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.06965355828887553</v>
+        <v>-0.7315473796771523</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.052428066704707</v>
+        <v>-2.59034847466988</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5216610864647542</v>
+        <v>-0.7812371963550481</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2182985654126653</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1151184477118021</v>
+        <v>-0.5024439334922138</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.017616140073171</v>
+        <v>-2.564686669424069</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4957963345343065</v>
+        <v>-0.7212175394339733</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.201677320512733</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2893051050533917</v>
+        <v>-0.3936484499981522</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.952982731184824</v>
+        <v>-2.467821238880822</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3990155867803326</v>
+        <v>-0.6739981241258951</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1874553147818729</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5059426606381517</v>
+        <v>-0.109848682231592</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.890938717585705</v>
+        <v>-2.398625179708386</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3230697252836257</v>
+        <v>-0.6283964421025436</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1748213315823297</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7569278475615389</v>
+        <v>0.1232509155781636</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.808436510136772</v>
+        <v>-2.31639016106009</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.279326684480001</v>
+        <v>-0.6105896955858212</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1637843130709798</v>
       </c>
       <c r="E84" t="n">
-        <v>1.052498523037005</v>
+        <v>0.489835410099247</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.781694269303689</v>
+        <v>-2.274935745638965</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2305815189169232</v>
+        <v>-0.5633629800372884</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1537205443130008</v>
       </c>
       <c r="E85" t="n">
-        <v>1.23513009853641</v>
+        <v>0.5841311560024944</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.728149925665794</v>
+        <v>-2.039479630210483</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2016579662360219</v>
+        <v>-0.5389130147069313</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1449943779240634</v>
       </c>
       <c r="E86" t="n">
-        <v>1.484807082370343</v>
+        <v>0.8951710410011381</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.663680042163629</v>
+        <v>-2.11324125976319</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1338460326537674</v>
+        <v>-0.4245401475055984</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1375041046727556</v>
       </c>
       <c r="E87" t="n">
-        <v>1.702668158255285</v>
+        <v>1.14227542009889</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.590368107422922</v>
+        <v>-1.993750193979177</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05654816662487903</v>
+        <v>-0.3941215055796066</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1317539677713028</v>
       </c>
       <c r="E88" t="n">
-        <v>1.864013692637333</v>
+        <v>1.281825356579853</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.475736811709498</v>
+        <v>-1.769253199521055</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05855135260560577</v>
+        <v>-0.3451135313601652</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.128130100998182</v>
       </c>
       <c r="E89" t="n">
-        <v>2.020773215965836</v>
+        <v>1.555997567234961</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.388050703513794</v>
+        <v>-1.688363615188532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01876257395228256</v>
+        <v>-0.2191785433269263</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.127214617591491</v>
       </c>
       <c r="E90" t="n">
-        <v>2.148067508771711</v>
+        <v>1.765913061409177</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.203004208472026</v>
+        <v>-1.467445198601227</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07074466613290496</v>
+        <v>-0.1673906375423947</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1306494828602885</v>
       </c>
       <c r="E91" t="n">
-        <v>2.178781080412066</v>
+        <v>1.801079779726804</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.023003639632438</v>
+        <v>-1.24007920964447</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09408645496226233</v>
+        <v>-0.09941371852586753</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1385487164867138</v>
       </c>
       <c r="E92" t="n">
-        <v>2.15884704382689</v>
+        <v>1.773382667442266</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8604404251425722</v>
+        <v>-1.051648323127975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1133167483676208</v>
+        <v>-0.1123658051403186</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1516695708366559</v>
       </c>
       <c r="E93" t="n">
-        <v>2.172797803335522</v>
+        <v>1.868103287339968</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6587493818644446</v>
+        <v>-0.7961457474113168</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09429816193544409</v>
+        <v>-0.1055079592573204</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1682372798761174</v>
       </c>
       <c r="E94" t="n">
-        <v>2.129301510659261</v>
+        <v>1.830130356591614</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5008481009288507</v>
+        <v>-0.7097298810547037</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08550575233199191</v>
+        <v>-0.1249076182412243</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1873281138052433</v>
       </c>
       <c r="E95" t="n">
-        <v>2.037411924009831</v>
+        <v>1.807685037290075</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3097672271273565</v>
+        <v>-0.4679356968635868</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05474253905654562</v>
+        <v>-0.1015891901813215</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2080645098977199</v>
       </c>
       <c r="E96" t="n">
-        <v>1.902525381131231</v>
+        <v>1.68527460534829</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1888854655367526</v>
+        <v>-0.271202976902185</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01279243730855689</v>
+        <v>-0.0592945170838783</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2299051271363769</v>
       </c>
       <c r="E97" t="n">
-        <v>1.778332230470447</v>
+        <v>1.569237283323321</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09177912705850594</v>
+        <v>-0.08979054155868829</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.00372654679198413</v>
+        <v>-0.1750398294906654</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2537173687988348</v>
       </c>
       <c r="E98" t="n">
-        <v>1.627036207098123</v>
+        <v>1.492704482494069</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02724062129606872</v>
+        <v>0.06022647968599869</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.01950382646234353</v>
+        <v>-0.1299520843953139</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2784826800130301</v>
       </c>
       <c r="E99" t="n">
-        <v>1.46311076773944</v>
+        <v>1.307345537160846</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02065333623000932</v>
+        <v>0.09710437436617061</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05210378023615296</v>
+        <v>-0.2145282901573821</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3055243785690983</v>
       </c>
       <c r="E100" t="n">
-        <v>1.335553666277202</v>
+        <v>1.245388396423135</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07261498773735901</v>
+        <v>0.2289817581294079</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08025934762123631</v>
+        <v>-0.2554826391073711</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3327190278206739</v>
       </c>
       <c r="E101" t="n">
-        <v>1.16690643139252</v>
+        <v>1.111030390953444</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07636001109053982</v>
+        <v>0.2223253988829552</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05629119816087911</v>
+        <v>-0.08188438114641769</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3625952294950054</v>
       </c>
       <c r="E102" t="n">
-        <v>1.046608689038279</v>
+        <v>1.057951802656549</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08134607532099303</v>
+        <v>0.1974082181635073</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.107689271105138</v>
+        <v>-0.2167417230631997</v>
       </c>
     </row>
   </sheetData>
